--- a/tests/xl/from-schema-T.xlsx
+++ b/tests/xl/from-schema-T.xlsx
@@ -133,7 +133,7 @@
     <t>i_duration</t>
   </si>
   <si>
-    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2024-09-30 08:42:21.926173 - SchemaUrl=None</t>
+    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2024-10-04 13:00:12.287024 - SchemaUrl=None</t>
   </si>
 </sst>
 </file>
@@ -842,16 +842,16 @@
   </sheetData>
   <conditionalFormatting sqref="A3:A15">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"boolean"</formula>
+      <formula>"numeric"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"datetime"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"unicode"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"numeric"</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"datetime"</formula>
+      <formula>"boolean"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">

--- a/tests/xl/from-schema-T.xlsx
+++ b/tests/xl/from-schema-T.xlsx
@@ -133,7 +133,7 @@
     <t>i_duration</t>
   </si>
   <si>
-    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2024-10-04 13:00:12.287024 - SchemaUrl=None</t>
+    <t>#Title=TestArrayTransposed - HeaderDepth=3 - IsTransposed=True - DateTime=2025-09-18 09:28:30.370193 - DatamodelUrl=None</t>
   </si>
 </sst>
 </file>
